--- a/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="404">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1133,15 +1133,6 @@
     <t>SECONDOTHERFEE</t>
   </si>
   <si>
-    <t>30300068</t>
-  </si>
-  <si>
-    <t>20210116141938</t>
-  </si>
-  <si>
-    <t>20210116095210</t>
-  </si>
-  <si>
     <t>0000860188</t>
   </si>
   <si>
@@ -1184,9 +1175,6 @@
     <t>0.00000000</t>
   </si>
   <si>
-    <t>20210116095209</t>
-  </si>
-  <si>
     <t>000005974655</t>
   </si>
   <si>
@@ -1200,9 +1188,6 @@
   </si>
   <si>
     <t>555555555555|6</t>
-  </si>
-  <si>
-    <t>20210116000000</t>
   </si>
   <si>
     <t>1000132.400</t>
@@ -1212,34 +1197,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>20211212000000</t>
+  </si>
+  <si>
+    <t>766222254.590</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30051528</t>
+  </si>
+  <si>
     <t>005_001_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5lEuv1P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>634275162.010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦振鹏主股东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦振鹏主股东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.00</t>
+  </si>
+  <si>
+    <t>20221007203249</t>
+  </si>
+  <si>
+    <t>20221007095210</t>
+  </si>
+  <si>
+    <t>20221007095209</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11.7000</t>
+  </si>
+  <si>
+    <t>20221001000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1297,7 +1296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1856,7 +1855,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
@@ -2105,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX9"/>
+  <dimension ref="A1:CA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,7 +2115,7 @@
     <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -2346,9 +2345,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2363,7 +2362,7 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>86</v>
@@ -2429,7 +2428,7 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>84</v>
@@ -2575,14 +2574,23 @@
       <c r="BX2" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="BY2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3465,15 +3473,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DV5"/>
+  <dimension ref="A1:DX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BY12" sqref="BY12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CS1" sqref="CS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>129</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>130</v>
+        <v>395</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>131</v>
@@ -3853,18 +3865,18 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>400</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>85</v>
@@ -3933,7 +3945,7 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>248</v>
@@ -3954,7 +3966,7 @@
         <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>92</v>
@@ -4050,7 +4062,7 @@
         <v>99</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>402</v>
+        <v>99</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>99</v>
@@ -4119,7 +4131,7 @@
         <v>92</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>92</v>
@@ -4199,10 +4211,15 @@
       <c r="DV2" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="DW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4211,10 +4228,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE6"/>
+  <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4222,7 +4239,7 @@
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
@@ -4629,9 +4646,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>397</v>
@@ -4640,16 +4657,16 @@
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
@@ -4679,28 +4696,28 @@
         <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>253</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>244</v>
@@ -4712,43 +4729,43 @@
         <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>95</v>
@@ -4760,16 +4777,16 @@
         <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>256</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>97</v>
@@ -4796,10 +4813,10 @@
         <v>84</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>92</v>
@@ -4811,7 +4828,7 @@
         <v>258</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>84</v>
@@ -4838,7 +4855,7 @@
         <v>83</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>92</v>
@@ -4856,7 +4873,7 @@
         <v>84</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>248</v>
@@ -4868,13 +4885,13 @@
         <v>99</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>84</v>
@@ -4901,70 +4918,75 @@
         <v>94</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DL2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DT2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="DM2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="DQ2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="EC2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="DV2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="ED2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="EE2" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="EG2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="400">
   <si>
     <t>EXCHID</t>
   </si>
@@ -761,18 +761,12 @@
     <t>18100000.000</t>
   </si>
   <si>
-    <t>20181008113253</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
     <t>0.0500000000</t>
   </si>
   <si>
-    <t>633275162.010</t>
-  </si>
-  <si>
     <t>0.000000</t>
   </si>
   <si>
@@ -785,9 +779,6 @@
     <t>20181008113252</t>
   </si>
   <si>
-    <t>100000.00</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -795,9 +786,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>8182999.830</t>
   </si>
   <si>
     <t>Level1</t>
@@ -1855,7 +1843,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
@@ -2106,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2105,7 @@
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2347,7 +2335,7 @@
     </row>
     <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2428,7 +2416,7 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>84</v>
@@ -2461,7 +2449,7 @@
         <v>99</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>84</v>
@@ -2599,25 +2587,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP2"/>
+  <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.5" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3057,7 +3047,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -3083,7 +3073,7 @@
         <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>244</v>
@@ -3134,19 +3124,19 @@
         <v>92</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>83</v>
@@ -3155,34 +3145,34 @@
         <v>97</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="AS2" s="1" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>85</v>
@@ -3191,19 +3181,19 @@
         <v>83</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>84</v>
@@ -3242,7 +3232,7 @@
         <v>99</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>99</v>
@@ -3260,7 +3250,7 @@
         <v>99</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BY2" s="1" t="s">
         <v>92</v>
@@ -3305,7 +3295,7 @@
         <v>99</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>92</v>
@@ -3317,7 +3307,7 @@
         <v>85</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>244</v>
@@ -3329,10 +3319,10 @@
         <v>92</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>84</v>
@@ -3392,7 +3382,7 @@
         <v>92</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>92</v>
@@ -3431,7 +3421,7 @@
         <v>92</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="EE2" s="1" t="s">
         <v>84</v>
@@ -3461,6 +3451,12 @@
         <v>92</v>
       </c>
       <c r="EP2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3487,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3589,7 +3585,7 @@
         <v>129</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>131</v>
@@ -3867,7 +3863,7 @@
     </row>
     <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -3945,19 +3941,19 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>83</v>
@@ -3966,34 +3962,34 @@
         <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="AV2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>85</v>
@@ -4002,19 +3998,19 @@
         <v>83</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>84</v>
@@ -4038,7 +4034,7 @@
         <v>84</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>92</v>
@@ -4113,7 +4109,7 @@
         <v>99</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>84</v>
@@ -4122,7 +4118,7 @@
         <v>85</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="CQ2" s="1" t="s">
         <v>244</v>
@@ -4131,7 +4127,7 @@
         <v>92</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>92</v>
@@ -4179,7 +4175,7 @@
         <v>92</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>84</v>
@@ -4241,31 +4237,31 @@
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -4274,7 +4270,7 @@
         <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -4292,100 +4288,100 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>129</v>
@@ -4397,19 +4393,19 @@
         <v>140</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>152</v>
@@ -4421,148 +4417,148 @@
         <v>144</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>142</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>155</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>160</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>167</v>
@@ -4574,99 +4570,99 @@
         <v>123</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="DO1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="DZ1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="EA1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="EE1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
@@ -4675,7 +4671,7 @@
         <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>86</v>
@@ -4696,28 +4692,28 @@
         <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>244</v>
@@ -4729,43 +4725,43 @@
         <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>95</v>
@@ -4777,16 +4773,16 @@
         <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>97</v>
@@ -4795,7 +4791,7 @@
         <v>92</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>84</v>
@@ -4807,16 +4803,16 @@
         <v>83</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>92</v>
@@ -4825,10 +4821,10 @@
         <v>84</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>84</v>
@@ -4840,10 +4836,10 @@
         <v>92</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>83</v>
@@ -4855,7 +4851,7 @@
         <v>83</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>92</v>
@@ -4873,31 +4869,31 @@
         <v>84</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>92</v>
@@ -4906,70 +4902,70 @@
         <v>92</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="DI2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DL2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="DU2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="DN2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC2" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>92</v>

--- a/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="407">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1216,11 +1216,31 @@
     <t>5</t>
   </si>
   <si>
-    <t>11.7000</t>
-  </si>
-  <si>
-    <t>20221001000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>23958.000</t>
+  </si>
+  <si>
+    <t>980131.600</t>
+  </si>
+  <si>
+    <t>20220105000000</t>
+  </si>
+  <si>
+    <t>765156026.590</t>
+  </si>
+  <si>
+    <t>1004089.600</t>
+  </si>
+  <si>
+    <t>20221202000000</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>13.3100</t>
   </si>
 </sst>
 </file>
@@ -1576,9 +1596,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2077,12 +2097,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2095,15 +2115,15 @@
   <dimension ref="A1:CA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
@@ -2333,9 +2353,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2365,22 +2385,22 @@
         <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>404</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>242</v>
+        <v>398</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>84</v>
@@ -2416,7 +2436,7 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>84</v>
@@ -2521,7 +2541,7 @@
         <v>90</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>242</v>
+        <v>398</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>92</v>
@@ -2572,13 +2592,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,25 +2609,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3047,7 +3067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -3067,19 +3087,19 @@
         <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>242</v>
+        <v>398</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>92</v>
@@ -3124,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>247</v>
@@ -3145,7 +3165,7 @@
         <v>97</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>243</v>
+        <v>401</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>92</v>
@@ -3310,7 +3330,7 @@
         <v>255</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="CS2" s="1" t="s">
         <v>92</v>
@@ -3319,7 +3339,7 @@
         <v>92</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>256</v>
@@ -3475,13 +3495,13 @@
       <selection activeCell="CS1" sqref="CS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
@@ -3861,7 +3881,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>388</v>
       </c>
@@ -4214,8 +4234,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4226,16 +4246,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BP8" sqref="BP8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
@@ -4642,7 +4664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>392</v>
       </c>
@@ -4980,9 +5002,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="405">
   <si>
     <t>EXCHID</t>
   </si>
@@ -284,18 +284,9 @@
     <t>焦振鹏主股东</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
     <t>11.03800000</t>
   </si>
   <si>
-    <t>2340.0000</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>11.700</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -1179,10 +1167,6 @@
   </si>
   <si>
     <t>1000132.400</t>
-  </si>
-  <si>
-    <t>焦振鹏主股东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20221007000000</t>
@@ -1216,31 +1200,41 @@
     <t>5</t>
   </si>
   <si>
-    <t>23958.000</t>
-  </si>
-  <si>
-    <t>980131.600</t>
-  </si>
-  <si>
     <t>20220105000000</t>
   </si>
   <si>
-    <t>765156026.590</t>
-  </si>
-  <si>
-    <t>1004089.600</t>
-  </si>
-  <si>
-    <t>20221202000000</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>13.3100</t>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>20221216000000</t>
+  </si>
+  <si>
+    <t>603998</t>
+  </si>
+  <si>
+    <t>方盛制药</t>
+  </si>
+  <si>
+    <t>1760.000</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
+    <t>999552.400</t>
+  </si>
+  <si>
+    <t>1000000.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1760.0000</t>
   </si>
 </sst>
 </file>
@@ -1590,15 +1584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE8"/>
+  <dimension ref="A1:CH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1848,8 +1842,17 @@
       <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1863,200 +1866,203 @@
         <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="BS2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2096,13 +2102,22 @@
       <c r="CE2" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,17 +2130,17 @@
   <dimension ref="A1:CA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2351,11 +2366,20 @@
       </c>
       <c r="BX1" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2376,178 +2400,178 @@
         <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>84</v>
@@ -2607,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ER2"/>
+  <dimension ref="A1:ER3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2632,16 +2656,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>21</v>
@@ -2650,421 +2674,421 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="EB1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="EC1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="EG1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3099,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>85</v>
@@ -3084,97 +3108,97 @@
         <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>84</v>
@@ -3183,16 +3207,16 @@
         <v>84</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>85</v>
@@ -3201,19 +3225,19 @@
         <v>83</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>84</v>
@@ -3225,13 +3249,13 @@
         <v>83</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>84</v>
@@ -3240,85 +3264,85 @@
         <v>84</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CO2" s="1" t="s">
         <v>84</v>
@@ -3327,159 +3351,160 @@
         <v>85</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>399</v>
+        <v>240</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CU2" s="1" t="s">
         <v>402</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DK2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DY2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DZ2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="EA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EB2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="EE2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="EF2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EG2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EK2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EO2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EP2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EQ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="ER2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3503,22 +3528,22 @@
   <sheetData>
     <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -3527,363 +3552,363 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="BM1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BO1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CI1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CN1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CR1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="CT1" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="CU1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="CV1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DC1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DB1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="DH1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="DI1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -3892,7 +3917,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>85</v>
@@ -3901,115 +3926,115 @@
         <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="AV2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>85</v>
@@ -4018,19 +4043,19 @@
         <v>83</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>84</v>
@@ -4042,94 +4067,94 @@
         <v>83</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>84</v>
@@ -4138,100 +4163,100 @@
         <v>85</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DH2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4246,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4259,40 +4284,40 @@
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -4310,381 +4335,381 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CV1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DH1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="DO1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EA1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DZ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
@@ -4693,100 +4718,100 @@
         <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>85</v>
@@ -4795,25 +4820,25 @@
         <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>84</v>
@@ -4825,43 +4850,43 @@
         <v>83</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>83</v>
@@ -4873,133 +4898,133 @@
         <v>83</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="CH2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="EA2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CJ2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DT2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="DU2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="ED2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EE2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EG2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
